--- a/data/PVRP/results/Comparison_Results.xlsx
+++ b/data/PVRP/results/Comparison_Results.xlsx
@@ -224,14 +224,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.69921875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.5859375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.5859375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.265625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.265625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.265625" collapsed="true"/>
-    <col min="7" max="7" width="8.42578125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="9.5859375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.71875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.2890625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.2890625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.04296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.04296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.05859375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.1953125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.30859375" collapsed="true"/>
+    <col min="10" max="10" width="18.12890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -293,6 +294,12 @@
       <c r="H3" t="n">
         <v>531.02</v>
       </c>
+      <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-100.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -584,10 +591,10 @@
         <v>954.81</v>
       </c>
       <c r="J16" t="n">
-        <v>1205.459228515625</v>
+        <v>1572.315673828125</v>
       </c>
       <c r="K16" t="n">
-        <v>26.25253754876678</v>
+        <v>64.67487157814463</v>
       </c>
     </row>
     <row r="17">
